--- a/results/wiki/results-bisen.xlsx
+++ b/results/wiki/results-bisen.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilherme/Repositories/BISEN/results/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7520B2DB-B4AE-1F4D-B81E-10B8A52BEBBE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0068B476-4F24-0648-9743-D915D584996B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{2185AC26-22C2-4943-8CB8-79B3CF762B4D}"/>
+    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{2185AC26-22C2-4943-8CB8-79B3CF762B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,14 +26,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>add</t>
   </si>
   <si>
-    <t>client</t>
-  </si>
-  <si>
     <t>500k</t>
   </si>
   <si>
@@ -45,19 +43,49 @@
     <t>seconds</t>
   </si>
   <si>
-    <t>iee</t>
-  </si>
-  <si>
-    <t>sv (redis)</t>
-  </si>
-  <si>
     <t>100k</t>
   </si>
   <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>full</t>
+    <t>search</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Iee</t>
+  </si>
+  <si>
+    <t>sparse-hash</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>dbsize</t>
+  </si>
+  <si>
+    <t>cnf vs dnf</t>
+  </si>
+  <si>
+    <t>query 20</t>
+  </si>
+  <si>
+    <t>1.5M</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>remove?</t>
+  </si>
+  <si>
+    <t>iee+sv+net</t>
+  </si>
+  <si>
+    <t>net</t>
   </si>
 </sst>
 </file>
@@ -93,8 +121,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,81 +438,475 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EF6F649-3260-BE46-B89E-701EBB92FC82}">
-  <dimension ref="E5:H17"/>
+  <dimension ref="C5:P53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="5" spans="5:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="5:8" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="5:8" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
+      </c>
+      <c r="H11" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>10305667</v>
+      </c>
+      <c r="G12">
+        <v>106.06</v>
+      </c>
+      <c r="H12">
+        <f>L12-I12-M12</f>
+        <v>-0.29100000000001103</v>
+      </c>
+      <c r="I12">
+        <v>35.363999999999997</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:J16" si="0">G12+H12+I12</f>
+        <v>141.13299999999998</v>
+      </c>
+      <c r="L12">
+        <v>104.178</v>
+      </c>
+      <c r="M12">
+        <v>69.105000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
         <v>1</v>
       </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12">
-        <v>22.588999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
       <c r="F13">
-        <v>125.06699999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="5:8" x14ac:dyDescent="0.2">
+        <v>53444941</v>
+      </c>
+      <c r="G13">
+        <v>583.55499999999995</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ref="H13:H17" si="1">L13-I13-M13</f>
+        <v>2.1809999999999832</v>
+      </c>
+      <c r="I13">
+        <v>179.32400000000001</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>765.06</v>
+      </c>
+      <c r="L13">
+        <v>542.05799999999999</v>
+      </c>
+      <c r="M13">
+        <v>360.553</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>2</v>
       </c>
       <c r="F14">
-        <v>580.07600000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="5:8" x14ac:dyDescent="0.2">
+        <v>107479195</v>
+      </c>
+      <c r="G14">
+        <v>1194.787</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="1"/>
+        <v>7.4320000000001301</v>
+      </c>
+      <c r="I14">
+        <v>423.96699999999998</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>1626.1860000000001</v>
+      </c>
+      <c r="L14">
+        <v>1115.18</v>
+      </c>
+      <c r="M14">
+        <v>683.78099999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15">
+        <v>163217947</v>
+      </c>
+      <c r="G15">
+        <v>1825.729</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="1"/>
+        <v>9.0909999999998945</v>
+      </c>
+      <c r="I15">
+        <v>678.48400000000004</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>2513.3040000000001</v>
+      </c>
+      <c r="L15">
+        <v>1741.3140000000001</v>
+      </c>
+      <c r="M15">
+        <v>1053.739</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16">
+        <v>2468.3029999999999</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="0"/>
+        <v>2468.3029999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
         <v>3</v>
       </c>
-      <c r="F15">
-        <v>1268.002</v>
-      </c>
-    </row>
-    <row r="16" spans="5:8" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>3090.2379999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
+      <c r="F17">
+        <v>273489025</v>
+      </c>
+      <c r="G17">
+        <v>3097.1669999999999</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="1"/>
+        <v>17.201000000000022</v>
+      </c>
+      <c r="I17">
+        <v>1629.347</v>
+      </c>
+      <c r="J17">
+        <f>G17+H17+I17</f>
+        <v>4743.7150000000001</v>
+      </c>
+      <c r="L17">
+        <f>3149.433-9.877</f>
+        <v>3139.556</v>
+      </c>
+      <c r="M17">
+        <v>1493.008</v>
+      </c>
+    </row>
+    <row r="21" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+      <c r="H23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="F17">
-        <v>7086.6639999999998</v>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="L23" t="s">
+        <v>18</v>
+      </c>
+      <c r="M23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <v>10305667</v>
+      </c>
+      <c r="G24">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H24">
+        <f>L24-I24</f>
+        <v>2.1789999999999998</v>
+      </c>
+      <c r="I24">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ref="J24:J28" si="2">G24+H24+I24</f>
+        <v>2.43601</v>
+      </c>
+      <c r="L24">
+        <v>2.4359999999999999</v>
+      </c>
+      <c r="M24">
+        <v>0.77300000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>53444941</v>
+      </c>
+      <c r="G25">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H25">
+        <f t="shared" ref="H25:H29" si="3">L25-I25</f>
+        <v>11.488</v>
+      </c>
+      <c r="I25">
+        <v>1.492</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="2"/>
+        <v>12.98001</v>
+      </c>
+      <c r="L25">
+        <v>12.98</v>
+      </c>
+      <c r="M25">
+        <v>4.024</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>107479195</v>
+      </c>
+      <c r="G26">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="3"/>
+        <v>18.846</v>
+      </c>
+      <c r="I26">
+        <v>3.343</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="2"/>
+        <v>22.18901</v>
+      </c>
+      <c r="L26">
+        <v>22.189</v>
+      </c>
+      <c r="M26">
+        <v>8.15</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>163217947</v>
+      </c>
+      <c r="G27">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>35.246000000000002</v>
+      </c>
+      <c r="I27">
+        <v>5.0819999999999999</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="2"/>
+        <v>40.328010000000006</v>
+      </c>
+      <c r="L27">
+        <v>40.328000000000003</v>
+      </c>
+      <c r="M27">
+        <v>12.468999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>273489025</v>
+      </c>
+      <c r="G29">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="3"/>
+        <v>53.370000000000005</v>
+      </c>
+      <c r="I29">
+        <v>18.553000000000001</v>
+      </c>
+      <c r="J29">
+        <f>G29+H29+I29</f>
+        <v>71.923010000000005</v>
+      </c>
+      <c r="L29">
+        <v>71.923000000000002</v>
+      </c>
+      <c r="M29">
+        <v>20.571999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P41" s="1"/>
+    </row>
+    <row r="42" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P42" s="1"/>
+    </row>
+    <row r="43" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P43" s="1"/>
+    </row>
+    <row r="44" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P45" s="1"/>
+    </row>
+    <row r="49" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P50" s="1"/>
+    </row>
+    <row r="51" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P51" s="1"/>
+    </row>
+    <row r="52" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P52" s="1"/>
+    </row>
+    <row r="53" spans="16:16" x14ac:dyDescent="0.2">
+      <c r="P53" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54483113-3E2B-634A-93DE-A29759B2C5AD}">
+  <dimension ref="E3:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>2026741</v>
+      </c>
+    </row>
+    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>10305667</v>
+      </c>
+    </row>
+    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>53444941</v>
+      </c>
+    </row>
+    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>107479195</v>
+      </c>
+    </row>
+    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>273489025</v>
       </c>
     </row>
   </sheetData>

--- a/results/wiki/results-bisen.xlsx
+++ b/results/wiki/results-bisen.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilherme/Repositories/BISEN/results/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0068B476-4F24-0648-9743-D915D584996B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75F40D-4D0F-AF4D-8674-5CDDCC209085}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{2185AC26-22C2-4943-8CB8-79B3CF762B4D}"/>
+    <workbookView xWindow="-38400" yWindow="-13760" windowWidth="38400" windowHeight="21140" xr2:uid="{2185AC26-22C2-4943-8CB8-79B3CF762B4D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
   <si>
     <t>add</t>
   </si>
@@ -70,7 +73,7 @@
     <t>cnf vs dnf</t>
   </si>
   <si>
-    <t>query 20</t>
+    <t>query 19</t>
   </si>
   <si>
     <t>1.5M</t>
@@ -86,6 +89,105 @@
   </si>
   <si>
     <t>net</t>
+  </si>
+  <si>
+    <t>One Conjunction</t>
+  </si>
+  <si>
+    <t>One Disjunction</t>
+  </si>
+  <si>
+    <t>Three Disjunctions</t>
+  </si>
+  <si>
+    <t>Three Conjunctions</t>
+  </si>
+  <si>
+    <t>nr words</t>
+  </si>
+  <si>
+    <t>selectivity</t>
+  </si>
+  <si>
+    <t>portugal</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>person</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>thing</t>
+  </si>
+  <si>
+    <t>man</t>
+  </si>
+  <si>
+    <t>world</t>
+  </si>
+  <si>
+    <t>life</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>born</t>
+  </si>
+  <si>
+    <t>lisbon</t>
+  </si>
+  <si>
+    <t>york</t>
+  </si>
+  <si>
+    <t>paris</t>
+  </si>
+  <si>
+    <t>frequency</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>2 Keywords</t>
+  </si>
+  <si>
+    <t>5 Keywords</t>
+  </si>
+  <si>
+    <t>10 Keywords</t>
+  </si>
+  <si>
+    <t>1 Neg.</t>
+  </si>
+  <si>
+    <t>5 Negs.</t>
+  </si>
+  <si>
+    <t>10 Negs.</t>
+  </si>
+  <si>
+    <t>Full Neg. Query</t>
   </si>
 </sst>
 </file>
@@ -101,18 +203,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -121,9 +238,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -139,6 +262,24 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4B3C3525-963B-FB45-8E88-3B7AD471918F}" name="Table1" displayName="Table1" ref="A30:D47" totalsRowShown="0">
+  <autoFilter ref="A30:D47" xr:uid="{5034EADA-69CF-1D46-8E7B-8CF451C5BE36}"/>
+  <sortState ref="A31:D47">
+    <sortCondition descending="1" ref="D30:D47"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1346FBC0-A116-E54D-AE96-D8E5F4436B3E}" name="id"/>
+    <tableColumn id="2" xr3:uid="{DE0FEE4C-17DA-374C-A69C-3C3449E615FD}" name="word"/>
+    <tableColumn id="3" xr3:uid="{5CBD673A-E3FF-EA4F-8DA4-64C1391AF604}" name="frequency"/>
+    <tableColumn id="4" xr3:uid="{4CDD5B15-BDBB-6E44-BAB7-6E6BD5D64F3D}" name="selectivity">
+      <calculatedColumnFormula>C31/$C$20*100</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,7 +582,7 @@
   <dimension ref="C5:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,26 +630,24 @@
       <c r="F12">
         <v>10305667</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="2">
         <v>106.06</v>
       </c>
       <c r="H12">
         <f>L12-I12-M12</f>
-        <v>-0.29100000000001103</v>
-      </c>
-      <c r="I12">
+        <v>68.813999999999993</v>
+      </c>
+      <c r="I12" s="2">
         <v>35.363999999999997</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J16" si="0">G12+H12+I12</f>
-        <v>141.13299999999998</v>
-      </c>
-      <c r="L12">
+        <v>210.238</v>
+      </c>
+      <c r="L12" s="2">
         <v>104.178</v>
       </c>
-      <c r="M12">
-        <v>69.105000000000004</v>
-      </c>
+      <c r="M12" s="2"/>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
@@ -517,26 +656,24 @@
       <c r="F13">
         <v>53444941</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="2">
         <v>583.55499999999995</v>
       </c>
       <c r="H13">
         <f t="shared" ref="H13:H17" si="1">L13-I13-M13</f>
-        <v>2.1809999999999832</v>
-      </c>
-      <c r="I13">
+        <v>362.73399999999998</v>
+      </c>
+      <c r="I13" s="2">
         <v>179.32400000000001</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>765.06</v>
-      </c>
-      <c r="L13">
+        <v>1125.6130000000001</v>
+      </c>
+      <c r="L13" s="2">
         <v>542.05799999999999</v>
       </c>
-      <c r="M13">
-        <v>360.553</v>
-      </c>
+      <c r="M13" s="2"/>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
@@ -545,26 +682,24 @@
       <c r="F14">
         <v>107479195</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="2">
         <v>1194.787</v>
       </c>
       <c r="H14">
         <f t="shared" si="1"/>
-        <v>7.4320000000001301</v>
-      </c>
-      <c r="I14">
+        <v>691.21300000000008</v>
+      </c>
+      <c r="I14" s="2">
         <v>423.96699999999998</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>1626.1860000000001</v>
-      </c>
-      <c r="L14">
+        <v>2309.9670000000001</v>
+      </c>
+      <c r="L14" s="2">
         <v>1115.18</v>
       </c>
-      <c r="M14">
-        <v>683.78099999999995</v>
-      </c>
+      <c r="M14" s="2"/>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
@@ -573,26 +708,24 @@
       <c r="F15">
         <v>163217947</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="2">
         <v>1825.729</v>
       </c>
       <c r="H15">
         <f t="shared" si="1"/>
-        <v>9.0909999999998945</v>
-      </c>
-      <c r="I15">
+        <v>1062.83</v>
+      </c>
+      <c r="I15" s="2">
         <v>678.48400000000004</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>2513.3040000000001</v>
-      </c>
-      <c r="L15">
+        <v>3567.0430000000001</v>
+      </c>
+      <c r="L15" s="2">
         <v>1741.3140000000001</v>
       </c>
-      <c r="M15">
-        <v>1053.739</v>
-      </c>
+      <c r="M15" s="2"/>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
@@ -601,17 +734,27 @@
       <c r="E16" t="s">
         <v>16</v>
       </c>
-      <c r="G16">
+      <c r="F16">
+        <v>217892563</v>
+      </c>
+      <c r="G16" s="2">
         <v>2468.3029999999999</v>
       </c>
       <c r="H16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1369.1550000000002</v>
+      </c>
+      <c r="I16" s="2">
+        <v>877.44600000000003</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>2468.3029999999999</v>
-      </c>
+        <v>4714.9040000000005</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2246.6010000000001</v>
+      </c>
+      <c r="M16" s="2"/>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
@@ -620,27 +763,24 @@
       <c r="F17">
         <v>273489025</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="2">
         <v>3097.1669999999999</v>
       </c>
       <c r="H17">
         <f t="shared" si="1"/>
-        <v>17.201000000000022</v>
-      </c>
-      <c r="I17">
-        <v>1629.347</v>
+        <v>1504.6410000000001</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1632.6289999999999</v>
       </c>
       <c r="J17">
         <f>G17+H17+I17</f>
-        <v>4743.7150000000001</v>
-      </c>
-      <c r="L17">
-        <f>3149.433-9.877</f>
-        <v>3139.556</v>
-      </c>
-      <c r="M17">
-        <v>1493.008</v>
-      </c>
+        <v>6234.4369999999999</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3137.27</v>
+      </c>
+      <c r="M17" s="2"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
@@ -680,26 +820,24 @@
       <c r="F24">
         <v>10305667</v>
       </c>
-      <c r="G24">
-        <v>1.0000000000000001E-5</v>
+      <c r="G24" s="2">
+        <v>1E-4</v>
       </c>
       <c r="H24">
         <f>L24-I24</f>
-        <v>2.1789999999999998</v>
-      </c>
-      <c r="I24">
-        <v>0.25700000000000001</v>
+        <v>1.4039999999999999</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0.17100000000000001</v>
       </c>
       <c r="J24">
-        <f t="shared" ref="J24:J28" si="2">G24+H24+I24</f>
-        <v>2.43601</v>
-      </c>
-      <c r="L24">
-        <v>2.4359999999999999</v>
-      </c>
-      <c r="M24">
-        <v>0.77300000000000002</v>
-      </c>
+        <f t="shared" ref="J24:J27" si="2">G24+H24+I24</f>
+        <v>1.5750999999999999</v>
+      </c>
+      <c r="L24" s="2">
+        <v>1.575</v>
+      </c>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
@@ -708,26 +846,24 @@
       <c r="F25">
         <v>53444941</v>
       </c>
-      <c r="G25">
-        <v>1.0000000000000001E-5</v>
+      <c r="G25" s="2">
+        <v>1E-4</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H29" si="3">L25-I25</f>
-        <v>11.488</v>
-      </c>
-      <c r="I25">
-        <v>1.492</v>
+        <f t="shared" ref="H25:H27" si="3">L25-I25</f>
+        <v>5.78</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0.878</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>12.98001</v>
-      </c>
-      <c r="L25">
-        <v>12.98</v>
-      </c>
-      <c r="M25">
-        <v>4.024</v>
-      </c>
+        <v>6.6581000000000001</v>
+      </c>
+      <c r="L25" s="2">
+        <v>6.6580000000000004</v>
+      </c>
+      <c r="M25" s="2"/>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
@@ -736,26 +872,24 @@
       <c r="F26">
         <v>107479195</v>
       </c>
-      <c r="G26">
-        <v>1.0000000000000001E-5</v>
+      <c r="G26" s="2">
+        <v>1E-4</v>
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>18.846</v>
-      </c>
-      <c r="I26">
-        <v>3.343</v>
+        <v>14.293000000000001</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2.1240000000000001</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>22.18901</v>
-      </c>
-      <c r="L26">
-        <v>22.189</v>
-      </c>
-      <c r="M26">
-        <v>8.15</v>
-      </c>
+        <v>16.417100000000001</v>
+      </c>
+      <c r="L26" s="2">
+        <v>16.417000000000002</v>
+      </c>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
@@ -764,42 +898,50 @@
       <c r="F27">
         <v>163217947</v>
       </c>
-      <c r="G27">
-        <v>1.0000000000000001E-5</v>
+      <c r="G27" s="2">
+        <v>1E-4</v>
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>35.246000000000002</v>
-      </c>
-      <c r="I27">
-        <v>5.0819999999999999</v>
+        <v>20.795999999999999</v>
+      </c>
+      <c r="I27" s="2">
+        <v>3.1989999999999998</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>40.328010000000006</v>
-      </c>
-      <c r="L27">
-        <v>40.328000000000003</v>
-      </c>
-      <c r="M27">
-        <v>12.468999999999999</v>
-      </c>
+        <v>23.995100000000001</v>
+      </c>
+      <c r="L27" s="2">
+        <v>23.995000000000001</v>
+      </c>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
         <v>16</v>
       </c>
-      <c r="G28">
-        <v>1.0000000000000001E-5</v>
+      <c r="F28">
+        <v>217892563</v>
+      </c>
+      <c r="G28" s="2">
+        <v>1E-4</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f>L28-I28</f>
+        <v>24.803999999999998</v>
+      </c>
+      <c r="I28" s="2">
+        <v>4.3689999999999998</v>
       </c>
       <c r="J28">
-        <f t="shared" si="2"/>
-        <v>1.0000000000000001E-5</v>
-      </c>
+        <f>G28+H28+I28</f>
+        <v>29.173099999999998</v>
+      </c>
+      <c r="L28" s="2">
+        <v>29.172999999999998</v>
+      </c>
+      <c r="M28" s="2"/>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
@@ -808,26 +950,24 @@
       <c r="F29">
         <v>273489025</v>
       </c>
-      <c r="G29">
-        <v>1.0000000000000001E-5</v>
+      <c r="G29" s="2">
+        <v>1E-4</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
-        <v>53.370000000000005</v>
-      </c>
-      <c r="I29">
-        <v>18.553000000000001</v>
+        <f>L29-I29</f>
+        <v>42.628</v>
+      </c>
+      <c r="I29" s="2">
+        <v>11.894</v>
       </c>
       <c r="J29">
         <f>G29+H29+I29</f>
-        <v>71.923010000000005</v>
-      </c>
-      <c r="L29">
-        <v>71.923000000000002</v>
-      </c>
-      <c r="M29">
-        <v>20.571999999999999</v>
-      </c>
+        <v>54.522100000000002</v>
+      </c>
+      <c r="L29" s="2">
+        <v>54.521999999999998</v>
+      </c>
+      <c r="M29" s="2"/>
     </row>
     <row r="41" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
@@ -866,47 +1006,1003 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54483113-3E2B-634A-93DE-A29759B2C5AD}">
-  <dimension ref="E3:F13"/>
+  <dimension ref="E3:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F8" t="s">
+    <row r="6" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="H6">
+        <v>30</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="F9">
-        <v>2026741</v>
-      </c>
-    </row>
-    <row r="10" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>10305667</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1.127</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1.651</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>53444941</v>
+      </c>
+      <c r="H10" s="3">
+        <v>5.7009999999999996</v>
+      </c>
+      <c r="I10" s="3">
+        <v>5.3490000000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>8.7330000000000005</v>
+      </c>
+      <c r="K10" s="3">
+        <v>8.6579999999999995</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="W10" s="4"/>
+    </row>
+    <row r="11" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>107479195</v>
+      </c>
+      <c r="H11" s="3">
+        <v>12.833</v>
+      </c>
+      <c r="I11" s="3">
+        <v>11.692</v>
+      </c>
+      <c r="J11" s="3">
+        <v>21.442</v>
+      </c>
+      <c r="K11" s="3">
+        <v>18.308</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="W11" s="4"/>
+    </row>
+    <row r="12" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12">
+        <v>163217947</v>
+      </c>
+      <c r="H12" s="3">
+        <v>17.867999999999999</v>
+      </c>
+      <c r="I12" s="3">
+        <v>17.742999999999999</v>
+      </c>
+      <c r="J12" s="3">
+        <v>27.446999999999999</v>
+      </c>
+      <c r="K12" s="3">
+        <v>27.507000000000001</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
+      <c r="O12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>217892563</v>
+      </c>
+      <c r="H13" s="3">
+        <v>23.238</v>
+      </c>
+      <c r="I13" s="3">
+        <v>23.71</v>
+      </c>
+      <c r="J13" s="3">
+        <v>37.024999999999999</v>
+      </c>
+      <c r="K13" s="3">
+        <v>37.331000000000003</v>
+      </c>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="5:23" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>273489025</v>
+      </c>
+      <c r="H14" s="3">
+        <v>39.25</v>
+      </c>
+      <c r="I14" s="3">
+        <v>45.106999999999999</v>
+      </c>
+      <c r="J14" s="3">
+        <v>62.631999999999998</v>
+      </c>
+      <c r="K14" s="3">
+        <v>67.521000000000001</v>
+      </c>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="W14" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B19EE1-2F61-314E-B90A-663EC6F96E9D}">
+  <dimension ref="E4:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>21</v>
+      </c>
+      <c r="H8">
+        <v>22</v>
+      </c>
+      <c r="I8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>5</v>
+      </c>
       <c r="F10">
         <v>10305667</v>
       </c>
-    </row>
-    <row r="11" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="G10">
+        <v>0.71799999999999997</v>
+      </c>
+      <c r="H10">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="I10">
+        <v>2.4990000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
       <c r="F11">
         <v>53444941</v>
       </c>
-    </row>
-    <row r="12" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="G11">
+        <v>3.2879999999999998</v>
+      </c>
+      <c r="H11">
+        <v>8.2569999999999997</v>
+      </c>
+      <c r="I11">
+        <v>10.669</v>
+      </c>
+    </row>
+    <row r="12" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
       <c r="F12">
         <v>107479195</v>
       </c>
-    </row>
-    <row r="13" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="G12">
+        <v>5.899</v>
+      </c>
+      <c r="H12">
+        <v>13.756</v>
+      </c>
+      <c r="I12">
+        <v>21.922999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
       <c r="F13">
+        <v>163217947</v>
+      </c>
+      <c r="G13">
+        <v>11.433999999999999</v>
+      </c>
+      <c r="H13">
+        <v>23.302</v>
+      </c>
+      <c r="I13">
+        <v>33.018000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>217892563</v>
+      </c>
+      <c r="G14">
+        <v>12.451000000000001</v>
+      </c>
+      <c r="H14">
+        <v>33.35</v>
+      </c>
+      <c r="I14">
+        <v>45.174999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="5:9" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15">
         <v>273489025</v>
+      </c>
+      <c r="G15">
+        <v>19.620999999999999</v>
+      </c>
+      <c r="H15">
+        <v>44.372</v>
+      </c>
+      <c r="I15">
+        <v>71.885000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61CCD5E5-9BCE-BD4D-BCFB-F0CB69990667}">
+  <dimension ref="A9:N49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="9" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>17</v>
+      </c>
+      <c r="K11">
+        <v>11</v>
+      </c>
+      <c r="L11">
+        <v>3</v>
+      </c>
+      <c r="M11">
+        <v>14</v>
+      </c>
+      <c r="N11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="I12" t="s">
+        <v>40</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="6">
+        <v>2E-3</v>
+      </c>
+      <c r="J13" s="6">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0.05</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="N13" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="14" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>5</v>
+      </c>
+      <c r="H14">
+        <v>10305667</v>
+      </c>
+      <c r="I14">
+        <v>0.05</v>
+      </c>
+      <c r="J14">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="K14">
+        <v>0.153</v>
+      </c>
+      <c r="L14">
+        <v>0.22</v>
+      </c>
+      <c r="M14">
+        <v>0.497</v>
+      </c>
+      <c r="N14">
+        <v>0.64200000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>53444941</v>
+      </c>
+      <c r="I15">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="J15">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.53800000000000003</v>
+      </c>
+      <c r="L15">
+        <v>0.84</v>
+      </c>
+      <c r="M15">
+        <v>1.806</v>
+      </c>
+      <c r="N15">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="16" spans="7:14" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>107479195</v>
+      </c>
+      <c r="I16">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="J16">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="K16">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="L16">
+        <v>1.6439999999999999</v>
+      </c>
+      <c r="M16">
+        <v>3.915</v>
+      </c>
+      <c r="N16">
+        <v>5.2720000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>163217947</v>
+      </c>
+      <c r="I17">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="J17">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="K17">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="L17">
+        <v>2.6850000000000001</v>
+      </c>
+      <c r="M17">
+        <v>7.7809999999999997</v>
+      </c>
+      <c r="N17">
+        <v>9.1229999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>217892563</v>
+      </c>
+      <c r="I18">
+        <v>0.108</v>
+      </c>
+      <c r="J18">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="K18">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="L18">
+        <v>3.6709999999999998</v>
+      </c>
+      <c r="M18">
+        <v>10.084</v>
+      </c>
+      <c r="N18">
+        <v>10.465999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>273489025</v>
+      </c>
+      <c r="I19">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="J19">
+        <v>1.792</v>
+      </c>
+      <c r="K19">
+        <v>4.0759999999999996</v>
+      </c>
+      <c r="L19">
+        <v>6.7389999999999999</v>
+      </c>
+      <c r="M19">
+        <v>13.127000000000001</v>
+      </c>
+      <c r="N19">
+        <v>20.100000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C20">
+        <v>2500432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>698906</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D47" si="0">C31/$C$20*100</f>
+        <v>27.951409996352634</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>2</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>597788</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>23.907388803214804</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33">
+        <v>537939</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>21.513842408031891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="C34">
+        <v>427165</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>17.083647945634993</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>9</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>388656</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>15.54355407385604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>332246</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>13.287543912411937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>316859</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>12.672170248980978</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>227968</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>9.1171445574204775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>13</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>217687</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>8.7059756074150378</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40">
+        <v>170543</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>6.8205414104442754</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41">
+        <v>145139</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>5.804556972555142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>11</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>135937</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>5.4365405657902315</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43">
+        <v>66919</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>2.6762975357858161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>17</v>
+      </c>
+      <c r="B44" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44">
+        <v>59241</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>2.3692305969528467</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45">
+        <v>42427</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>1.6967867952417823</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>26</v>
+      </c>
+      <c r="C46">
+        <v>16696</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>0.66772461718615017</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>15</v>
+      </c>
+      <c r="B47" t="s">
+        <v>40</v>
+      </c>
+      <c r="C47">
+        <v>5198</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>0.20788407763138528</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C49" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6047865F-845E-C64B-86AB-C5D8634B4552}">
+  <dimension ref="F11:K15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="11" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>53444941</v>
+      </c>
+      <c r="H12">
+        <v>10.537000000000001</v>
+      </c>
+      <c r="I12">
+        <v>9.8070000000000004</v>
+      </c>
+      <c r="J12">
+        <v>9.8019999999999996</v>
+      </c>
+      <c r="K12">
+        <v>9.8689999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>107479195</v>
+      </c>
+      <c r="H13">
+        <v>20.123999999999999</v>
+      </c>
+      <c r="I13">
+        <v>19.526</v>
+      </c>
+      <c r="J13">
+        <v>19.678000000000001</v>
+      </c>
+      <c r="K13">
+        <v>19.449000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14">
+        <v>163217947</v>
+      </c>
+      <c r="H14">
+        <v>31.481000000000002</v>
+      </c>
+      <c r="I14">
+        <v>30.402999999999999</v>
+      </c>
+      <c r="J14">
+        <v>31.064</v>
+      </c>
+      <c r="K14">
+        <v>30.402999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="6:11" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15">
+        <v>217892563</v>
+      </c>
+      <c r="H15">
+        <v>58.045999999999999</v>
+      </c>
+      <c r="I15">
+        <v>52.948</v>
+      </c>
+      <c r="J15">
+        <v>52.557000000000002</v>
+      </c>
+      <c r="K15">
+        <v>47.826000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/results/wiki/results-bisen.xlsx
+++ b/results/wiki/results-bisen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guilherme/Repositories/BISEN/results/wiki/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D75F40D-4D0F-AF4D-8674-5CDDCC209085}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1DAD7D-CBD0-1A48-919B-56C4A0BE14DD}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-13760" windowWidth="38400" windowHeight="21140" xr2:uid="{2185AC26-22C2-4943-8CB8-79B3CF762B4D}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="52">
   <si>
     <t>add</t>
   </si>
@@ -40,9 +40,6 @@
     <t>1M</t>
   </si>
   <si>
-    <t>2.5M</t>
-  </si>
-  <si>
     <t>seconds</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>sparse-hash</t>
   </si>
   <si>
-    <t>Server</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -188,6 +182,9 @@
   </si>
   <si>
     <t>Full Neg. Query</t>
+  </si>
+  <si>
+    <t>Storage</t>
   </si>
 </sst>
 </file>
@@ -582,14 +579,14 @@
   <dimension ref="C5:P53"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="5" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:13" x14ac:dyDescent="0.2">
@@ -597,35 +594,35 @@
         <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="3:13" x14ac:dyDescent="0.2">
       <c r="F11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
         <v>7</v>
       </c>
-      <c r="H11" t="s">
-        <v>8</v>
-      </c>
       <c r="I11" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12">
         <v>10305667</v>
@@ -634,20 +631,21 @@
         <v>106.06</v>
       </c>
       <c r="H12">
-        <f>L12-I12-M12</f>
-        <v>68.813999999999993</v>
+        <v>13</v>
       </c>
       <c r="I12" s="2">
         <v>35.363999999999997</v>
       </c>
       <c r="J12">
         <f t="shared" ref="J12:J16" si="0">G12+H12+I12</f>
-        <v>210.238</v>
+        <v>154.42400000000001</v>
       </c>
       <c r="L12" s="2">
         <v>104.178</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <v>69.105000000000004</v>
+      </c>
     </row>
     <row r="13" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
@@ -660,20 +658,21 @@
         <v>583.55499999999995</v>
       </c>
       <c r="H13">
-        <f t="shared" ref="H13:H17" si="1">L13-I13-M13</f>
-        <v>362.73399999999998</v>
+        <v>13</v>
       </c>
       <c r="I13" s="2">
         <v>179.32400000000001</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
-        <v>1125.6130000000001</v>
+        <v>775.87899999999991</v>
       </c>
       <c r="L13" s="2">
         <v>542.05799999999999</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <v>360.553</v>
+      </c>
     </row>
     <row r="14" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
@@ -686,24 +685,25 @@
         <v>1194.787</v>
       </c>
       <c r="H14">
-        <f t="shared" si="1"/>
-        <v>691.21300000000008</v>
+        <v>13</v>
       </c>
       <c r="I14" s="2">
         <v>423.96699999999998</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
-        <v>2309.9670000000001</v>
+        <v>1631.7539999999999</v>
       </c>
       <c r="L14" s="2">
         <v>1115.18</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <v>717.86900000000003</v>
+      </c>
     </row>
     <row r="15" spans="3:13" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>163217947</v>
@@ -712,27 +712,28 @@
         <v>1825.729</v>
       </c>
       <c r="H15">
-        <f t="shared" si="1"/>
-        <v>1062.83</v>
+        <v>13</v>
       </c>
       <c r="I15" s="2">
         <v>678.48400000000004</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
-        <v>3567.0430000000001</v>
+        <v>2517.2130000000002</v>
       </c>
       <c r="L15" s="2">
         <v>1741.3140000000001</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <v>1053.739</v>
+      </c>
     </row>
     <row r="16" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F16">
         <v>217892563</v>
@@ -741,81 +742,66 @@
         <v>2468.3029999999999</v>
       </c>
       <c r="H16">
-        <f t="shared" si="1"/>
-        <v>1369.1550000000002</v>
+        <f t="shared" ref="H13:H17" si="1">L16-I16-M16</f>
+        <v>13.179000000000087</v>
       </c>
       <c r="I16" s="2">
         <v>877.44600000000003</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
-        <v>4714.9040000000005</v>
+        <v>3358.9279999999999</v>
       </c>
       <c r="L16" s="2">
         <v>2246.6010000000001</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2">
+        <v>1355.9760000000001</v>
+      </c>
     </row>
     <row r="17" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>273489025</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3097.1669999999999</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="1"/>
-        <v>1504.6410000000001</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1632.6289999999999</v>
-      </c>
-      <c r="J17">
-        <f>G17+H17+I17</f>
-        <v>6234.4369999999999</v>
-      </c>
-      <c r="L17" s="2">
-        <v>3137.27</v>
-      </c>
-      <c r="M17" s="2"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
     <row r="21" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="4:13" x14ac:dyDescent="0.2">
       <c r="F23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G23" t="s">
+        <v>6</v>
+      </c>
+      <c r="H23" t="s">
         <v>7</v>
       </c>
-      <c r="H23" t="s">
-        <v>8</v>
-      </c>
       <c r="I23" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F24">
         <v>10305667</v>
@@ -824,20 +810,22 @@
         <v>1E-4</v>
       </c>
       <c r="H24">
-        <f>L24-I24</f>
-        <v>1.4039999999999999</v>
+        <f>L24-I24-M24</f>
+        <v>0.85999999999999988</v>
       </c>
       <c r="I24" s="2">
         <v>0.17100000000000001</v>
       </c>
       <c r="J24">
         <f t="shared" ref="J24:J27" si="2">G24+H24+I24</f>
-        <v>1.5750999999999999</v>
+        <v>1.0310999999999999</v>
       </c>
       <c r="L24" s="2">
         <v>1.575</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2">
+        <v>0.54400000000000004</v>
+      </c>
     </row>
     <row r="25" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E25" t="s">
@@ -850,20 +838,22 @@
         <v>1E-4</v>
       </c>
       <c r="H25">
-        <f t="shared" ref="H25:H27" si="3">L25-I25</f>
-        <v>5.78</v>
+        <f t="shared" ref="H25:H28" si="3">L25-I25-M25</f>
+        <v>2.9490000000000003</v>
       </c>
       <c r="I25" s="2">
         <v>0.878</v>
       </c>
       <c r="J25">
         <f t="shared" si="2"/>
-        <v>6.6581000000000001</v>
+        <v>3.8271000000000006</v>
       </c>
       <c r="L25" s="2">
         <v>6.6580000000000004</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2">
+        <v>2.831</v>
+      </c>
     </row>
     <row r="26" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E26" t="s">
@@ -877,23 +867,25 @@
       </c>
       <c r="H26">
         <f t="shared" si="3"/>
-        <v>14.293000000000001</v>
+        <v>8.7650000000000006</v>
       </c>
       <c r="I26" s="2">
         <v>2.1240000000000001</v>
       </c>
       <c r="J26">
         <f t="shared" si="2"/>
-        <v>16.417100000000001</v>
+        <v>10.889100000000001</v>
       </c>
       <c r="L26" s="2">
         <v>16.417000000000002</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2">
+        <v>5.5279999999999996</v>
+      </c>
     </row>
     <row r="27" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>163217947</v>
@@ -903,23 +895,25 @@
       </c>
       <c r="H27">
         <f t="shared" si="3"/>
-        <v>20.795999999999999</v>
+        <v>11.979999999999999</v>
       </c>
       <c r="I27" s="2">
         <v>3.1989999999999998</v>
       </c>
       <c r="J27">
         <f t="shared" si="2"/>
-        <v>23.995100000000001</v>
+        <v>15.179099999999998</v>
       </c>
       <c r="L27" s="2">
         <v>23.995000000000001</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2">
+        <v>8.8160000000000007</v>
+      </c>
     </row>
     <row r="28" spans="4:13" x14ac:dyDescent="0.2">
       <c r="E28" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F28">
         <v>217892563</v>
@@ -928,46 +922,31 @@
         <v>1E-4</v>
       </c>
       <c r="H28">
-        <f>L28-I28</f>
-        <v>24.803999999999998</v>
+        <f t="shared" si="3"/>
+        <v>13.129999999999999</v>
       </c>
       <c r="I28" s="2">
         <v>4.3689999999999998</v>
       </c>
       <c r="J28">
         <f>G28+H28+I28</f>
-        <v>29.173099999999998</v>
+        <v>17.499099999999999</v>
       </c>
       <c r="L28" s="2">
         <v>29.172999999999998</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2">
+        <v>11.673999999999999</v>
+      </c>
     </row>
     <row r="29" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>3</v>
-      </c>
-      <c r="F29">
-        <v>273489025</v>
-      </c>
-      <c r="G29" s="2">
-        <v>1E-4</v>
-      </c>
-      <c r="H29">
-        <f>L29-I29</f>
-        <v>42.628</v>
-      </c>
-      <c r="I29" s="2">
-        <v>11.894</v>
-      </c>
-      <c r="J29">
-        <f>G29+H29+I29</f>
-        <v>54.522100000000002</v>
-      </c>
-      <c r="L29" s="2">
-        <v>54.521999999999998</v>
-      </c>
-      <c r="M29" s="2"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="41" spans="16:16" x14ac:dyDescent="0.2">
       <c r="P41" s="1"/>
@@ -1009,14 +988,14 @@
   <dimension ref="E3:W14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+      <selection activeCell="F14" sqref="F14:K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="3" spans="5:23" x14ac:dyDescent="0.2">
       <c r="E3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="5:23" x14ac:dyDescent="0.2">
@@ -1035,19 +1014,19 @@
     </row>
     <row r="8" spans="5:23" x14ac:dyDescent="0.2">
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" t="s">
         <v>20</v>
-      </c>
-      <c r="I8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" t="s">
-        <v>23</v>
-      </c>
-      <c r="K8" t="s">
-        <v>22</v>
       </c>
       <c r="O8" s="4"/>
       <c r="Q8" s="4"/>
@@ -1057,7 +1036,7 @@
     </row>
     <row r="9" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G9">
         <v>10305667</v>
@@ -1119,16 +1098,16 @@
         <v>107479195</v>
       </c>
       <c r="H11" s="3">
-        <v>12.833</v>
+        <v>10.754</v>
       </c>
       <c r="I11" s="3">
-        <v>11.692</v>
+        <v>10.888</v>
       </c>
       <c r="J11" s="3">
-        <v>21.442</v>
+        <v>17.138999999999999</v>
       </c>
       <c r="K11" s="3">
-        <v>18.308</v>
+        <v>17.213000000000001</v>
       </c>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1141,7 +1120,7 @@
     </row>
     <row r="12" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G12">
         <v>163217947</v>
@@ -1169,7 +1148,7 @@
     </row>
     <row r="13" spans="5:23" x14ac:dyDescent="0.2">
       <c r="F13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G13">
         <v>217892563</v>
@@ -1196,24 +1175,10 @@
       <c r="W13" s="4"/>
     </row>
     <row r="14" spans="5:23" x14ac:dyDescent="0.2">
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>273489025</v>
-      </c>
-      <c r="H14" s="3">
-        <v>39.25</v>
-      </c>
-      <c r="I14" s="3">
-        <v>45.106999999999999</v>
-      </c>
-      <c r="J14" s="3">
-        <v>62.631999999999998</v>
-      </c>
-      <c r="K14" s="3">
-        <v>67.521000000000001</v>
-      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
       <c r="N14" s="3"/>
@@ -1230,17 +1195,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B19EE1-2F61-314E-B90A-663EC6F96E9D}">
-  <dimension ref="E4:I15"/>
+  <dimension ref="E4:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E15" sqref="E15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="4" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="5:9" x14ac:dyDescent="0.2">
@@ -1256,21 +1221,21 @@
     </row>
     <row r="9" spans="5:9" x14ac:dyDescent="0.2">
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="s">
         <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="10" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10">
         <v>10305667</v>
@@ -1321,7 +1286,7 @@
     </row>
     <row r="13" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>163217947</v>
@@ -1338,7 +1303,7 @@
     </row>
     <row r="14" spans="5:9" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F14">
         <v>217892563</v>
@@ -1351,23 +1316,6 @@
       </c>
       <c r="I14">
         <v>45.174999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="5:9" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>273489025</v>
-      </c>
-      <c r="G15">
-        <v>19.620999999999999</v>
-      </c>
-      <c r="H15">
-        <v>44.372</v>
-      </c>
-      <c r="I15">
-        <v>71.885000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1380,7 +1328,7 @@
   <dimension ref="A9:N49"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1391,7 +1339,7 @@
   <sheetData>
     <row r="9" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="7:14" x14ac:dyDescent="0.2">
@@ -1416,27 +1364,27 @@
     </row>
     <row r="12" spans="7:14" x14ac:dyDescent="0.2">
       <c r="I12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
         <v>40</v>
       </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N12" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="7:14" x14ac:dyDescent="0.2">
       <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I13" s="6">
         <v>2E-3</v>
@@ -1459,7 +1407,7 @@
     </row>
     <row r="14" spans="7:14" x14ac:dyDescent="0.2">
       <c r="G14" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H14">
         <v>10305667</v>
@@ -1537,7 +1485,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H17">
         <v>163217947</v>
@@ -1563,7 +1511,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18">
         <v>217892563</v>
@@ -1585,32 +1533,6 @@
       </c>
       <c r="N18">
         <v>10.465999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G19" t="s">
-        <v>3</v>
-      </c>
-      <c r="H19">
-        <v>273489025</v>
-      </c>
-      <c r="I19">
-        <v>0.13200000000000001</v>
-      </c>
-      <c r="J19">
-        <v>1.792</v>
-      </c>
-      <c r="K19">
-        <v>4.0759999999999996</v>
-      </c>
-      <c r="L19">
-        <v>6.7389999999999999</v>
-      </c>
-      <c r="M19">
-        <v>13.127000000000001</v>
-      </c>
-      <c r="N19">
-        <v>20.100000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
@@ -1620,16 +1542,16 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.2">
@@ -1637,7 +1559,7 @@
         <v>4</v>
       </c>
       <c r="B31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31">
         <v>698906</v>
@@ -1652,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>597788</v>
@@ -1667,7 +1589,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>537939</v>
@@ -1682,7 +1604,7 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C34">
         <v>427165</v>
@@ -1697,7 +1619,7 @@
         <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>388656</v>
@@ -1712,7 +1634,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>332246</v>
@@ -1727,7 +1649,7 @@
         <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C37">
         <v>316859</v>
@@ -1742,7 +1664,7 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>227968</v>
@@ -1757,7 +1679,7 @@
         <v>13</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>217687</v>
@@ -1772,7 +1694,7 @@
         <v>16</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C40">
         <v>170543</v>
@@ -1787,7 +1709,7 @@
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C41">
         <v>145139</v>
@@ -1802,7 +1724,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C42">
         <v>135937</v>
@@ -1817,7 +1739,7 @@
         <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C43">
         <v>66919</v>
@@ -1832,7 +1754,7 @@
         <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C44">
         <v>59241</v>
@@ -1847,7 +1769,7 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>42427</v>
@@ -1862,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C46">
         <v>16696</v>
@@ -1877,7 +1799,7 @@
         <v>15</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47">
         <v>5198</v>
@@ -1903,26 +1825,26 @@
   <dimension ref="F11:K15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="11" spans="6:11" x14ac:dyDescent="0.2">
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J11" t="s">
         <v>49</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>50</v>
-      </c>
-      <c r="J11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="6:11" x14ac:dyDescent="0.2">
@@ -1967,7 +1889,7 @@
     </row>
     <row r="14" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G14">
         <v>163217947</v>
@@ -1987,22 +1909,22 @@
     </row>
     <row r="15" spans="6:11" x14ac:dyDescent="0.2">
       <c r="F15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G15">
         <v>217892563</v>
       </c>
       <c r="H15">
-        <v>58.045999999999999</v>
+        <v>48.787999999999997</v>
       </c>
       <c r="I15">
-        <v>52.948</v>
+        <v>47.427</v>
       </c>
       <c r="J15">
-        <v>52.557000000000002</v>
+        <v>48.119</v>
       </c>
       <c r="K15">
-        <v>47.826000000000001</v>
+        <v>47.975000000000001</v>
       </c>
     </row>
   </sheetData>
